--- a/testdata/新建 XLSX 工作表.xlsx
+++ b/testdata/新建 XLSX 工作表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>用例编号</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>su</t>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+  </si>
+  <si>
+    <t>close</t>
   </si>
   <si>
     <t>百度搜索2</t>
@@ -742,9 +748,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -752,8 +761,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1066,241 +1081,277 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" display="http://www.baidu.com"/>
-    <hyperlink ref="G9" r:id="rId1" display="http://www.baidu.com"/>
+    <hyperlink ref="G10" r:id="rId1" display="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
